--- a/WebsiteAutomation/TestData/testData.xlsx
+++ b/WebsiteAutomation/TestData/testData.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Login Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Product Selection" sheetId="2" r:id="rId2"/>
+    <sheet name="Product Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:A2"/>
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,7 +64,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,32 +85,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +124,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -132,8 +146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,20 +171,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -184,9 +185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +194,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,55 +209,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,127 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +412,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -427,28 +442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,23 +475,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,8 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,130 +523,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/WebsiteAutomation/TestData/testData.xlsx
+++ b/WebsiteAutomation/TestData/testData.xlsx
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,13 +65,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,30 +78,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -124,31 +93,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +148,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -171,15 +164,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,187 +209,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +407,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -427,17 +453,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,17 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,173 +500,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/WebsiteAutomation/TestData/testData.xlsx
+++ b/WebsiteAutomation/TestData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11928" windowHeight="6192"/>
+    <workbookView windowWidth="14925" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Login Details" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>dummyUsername</t>
   </si>
   <si>
-    <t>dummyPasssword</t>
+    <t>dummyPassword</t>
   </si>
   <si>
     <t xml:space="preserve">Search Data
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,14 +57,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,7 +94,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,7 +118,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,24 +140,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,13 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -163,18 +163,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,187 +209,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,41 +400,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,21 +414,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,7 +437,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,134 +523,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,9 +658,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,10 +985,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="25.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="20.7809523809524" customWidth="1"/>
+    <col min="2" max="2" width="25.2190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1003,7 +1000,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1025,14 +1022,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" ht="43.2" spans="1:1">
+    <row r="1" ht="45" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="57.6" spans="1:1">
+    <row r="2" ht="60" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
